--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_2/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_2/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.063</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.777</v>
+        <v>18.08</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.189</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.049</v>
+        <v>16.185</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.192</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.621</v>
+        <v>14.982</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>21.42147889866517</v>
+        <v>-9.039438617212436</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27.47317212598142</v>
+        <v>18.65249127543354</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.28475420800014</v>
+        <v>25.63656701801546</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>21.47246093012631</v>
+        <v>-3.60620346368303</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>27.72019092960465</v>
+        <v>13.545571147945</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.61038147740599</v>
+        <v>19.13889022654717</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>22.66626160802121</v>
+        <v>8.421165632398111</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.49335478804022</v>
+        <v>21.79202889701722</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.25976717907107</v>
+        <v>26.20319331566714</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.5198400062244</v>
+        <v>23.13466930094029</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>34.36960473811835</v>
+        <v>29.32473871257899</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35.92238646270804</v>
+        <v>34.59282210897599</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28.23970451355003</v>
+        <v>-1.373977379754599</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>35.28238433863621</v>
+        <v>20.67446934259424</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>37.40944611729757</v>
+        <v>27.73201315234422</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>24.3693923961289</v>
+        <v>-6.216389140811707</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>30.46491401215077</v>
+        <v>24.16685620015514</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.29136823006558</v>
+        <v>33.92420564066101</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>24.44557389095863</v>
+        <v>-5.67949414571526</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>30.73880993651064</v>
+        <v>14.46480923802631</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>32.64441590007286</v>
+        <v>23.00591015873569</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>25.64206400881935</v>
+        <v>8.113828531957896</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31.51173596522661</v>
+        <v>24.00182090824956</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>21.42044291292659</v>
+        <v>0.6549111196715991</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.47215258978374</v>
+        <v>31.1928920434332</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.28374244849088</v>
+        <v>37.54585919773992</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>21.47141716732363</v>
+        <v>8.92531107459596</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.71916420556851</v>
+        <v>29.09395956698541</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.60936286120177</v>
+        <v>33.93759048792695</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>22.66522232815158</v>
+        <v>21.87201207554585</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.49233139787335</v>
+        <v>37.91111548450577</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>30.25875137812821</v>
+        <v>41.66426027432162</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.51881099085895</v>
+        <v>41.43373241551794</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>34.36858885095056</v>
+        <v>48.16072785906852</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>35.92137733940386</v>
+        <v>53.26647989360703</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28.23867670942201</v>
+        <v>14.4149646075115</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>35.28137570454392</v>
+        <v>40.05579830969833</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>37.40844658225271</v>
+        <v>46.19163964039298</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>24.36836003410424</v>
+        <v>6.779749568439861</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>30.46389821312457</v>
+        <v>40.11678161587187</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>32.29036025831053</v>
+        <v>49.31669295207892</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>24.4445337151859</v>
+        <v>10.365373107049</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.73778691818092</v>
+        <v>33.64372461201683</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>32.64340104148953</v>
+        <v>41.51473092351868</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>31.51071628099624</v>
+        <v>43.80710509187612</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>21.42161638526028</v>
+        <v>-2.918420994072452</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.47331210700984</v>
+        <v>28.29580395508914</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.28489533828572</v>
+        <v>34.7422783282951</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>21.47260907514936</v>
+        <v>6.352728433487844</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>27.72034167059156</v>
+        <v>27.2987238097119</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.61053341203795</v>
+        <v>32.24471261896366</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>22.66640917889232</v>
+        <v>19.26809274459884</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.49350478695445</v>
+        <v>35.99972205350943</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>30.25991829858848</v>
+        <v>39.84465008905889</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.5199887695565</v>
+        <v>39.75858124928979</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.36975520681494</v>
+        <v>46.63403215799937</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>35.92253801973564</v>
+        <v>51.9150907124808</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>28.2398513592408</v>
+        <v>12.14046719638651</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>35.28253408317708</v>
+        <v>38.70722078062474</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37.40959720216651</v>
+        <v>44.93150155594576</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>24.36953289460866</v>
+        <v>3.673993794456162</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30.46505701416602</v>
+        <v>37.70247161015271</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.2915123904332</v>
+        <v>47.01338677455245</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>24.44572509137883</v>
+        <v>8.311311951891629</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>30.73896374264599</v>
+        <v>32.38378965545653</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>32.64457090906097</v>
+        <v>40.37617662255472</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>25.64221463072614</v>
+        <v>23.06605567052184</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>31.51188902422152</v>
+        <v>42.43249140570703</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>21.4228387738485</v>
+        <v>-3.500222330569777</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>27.47455025286862</v>
+        <v>26.16686017485289</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.28613509965464</v>
+        <v>33.51997818146559</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>21.47384465008238</v>
+        <v>4.960046804951887</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>27.7215934518909</v>
+        <v>24.25287864989988</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.61178688457125</v>
+        <v>30.2315488118137</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>22.66764585342221</v>
+        <v>16.93441187523977</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.49475657967128</v>
+        <v>32.19544942522072</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>30.26117166030948</v>
+        <v>36.94765286357219</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.52125242396793</v>
+        <v>33.99473054870499</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>34.37103142955494</v>
+        <v>40.65453595207906</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35.923815557373</v>
+        <v>46.47847271682519</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>28.2411058624771</v>
+        <v>7.996441810695593</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>35.28380689249452</v>
+        <v>32.58442775148971</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>37.4108719391947</v>
+        <v>40.03874065431934</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>24.37076873923837</v>
+        <v>0.9611885287848096</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>30.46630873548313</v>
+        <v>33.3837011649992</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>32.29276575368366</v>
+        <v>43.56553869650794</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>24.44697432741097</v>
+        <v>4.619480938280084</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>30.74022930810932</v>
+        <v>26.97615545104456</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>32.64583819365162</v>
+        <v>35.96262693981929</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>25.64346497036162</v>
+        <v>18.38126647820698</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>31.51315459714425</v>
+        <v>36.2218726734642</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>33.29248451012136</v>
+        <v>30.9929376714231</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>32.57034495923379</v>
+        <v>26.50452388333141</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>37.45763742614614</v>
+        <v>35.83254853773316</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>39.02386039159865</v>
+        <v>43.05566456049644</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>31.27079747230709</v>
+        <v>0.5851999625091189</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>38.36418149110526</v>
+        <v>27.39198426322252</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>40.50880952153761</v>
+        <v>36.88427179861647</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>32.32472516153089</v>
+        <v>-6.49561996348783</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>38.3676652054629</v>
+        <v>26.34177150166619</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>40.18008024088947</v>
+        <v>37.11394716060153</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>32.56733375974537</v>
+        <v>-5.996107119044954</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>38.80642741849253</v>
+        <v>16.90916092284327</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>40.69748487737221</v>
+        <v>26.66081354030556</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>33.73402104177194</v>
+        <v>10.82628850197654</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>39.55343324834431</v>
+        <v>29.17634328115077</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>41.32035759816914</v>
+        <v>37.22241547643863</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>40.67605489759222</v>
+        <v>36.79144109592952</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>45.52469594735862</v>
+        <v>46.39933948968452</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>47.07843325431529</v>
+        <v>54.43752458798387</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>39.35179902287745</v>
+        <v>6.752769844519992</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>46.38331145391554</v>
+        <v>36.79358966994808</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>48.51188853186659</v>
+        <v>47.71867000642931</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>33.29147246353673</v>
+        <v>50.211237390108</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>32.56931969996228</v>
+        <v>48.51325585850563</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>37.45662539325696</v>
+        <v>58.40483747775865</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>39.02285516980505</v>
+        <v>65.49811399525177</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>31.2697734011649</v>
+        <v>20.03982600041209</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>38.36317672197002</v>
+        <v>50.59030225074706</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>40.50781391044887</v>
+        <v>59.23771216647631</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>32.32373678523304</v>
+        <v>10.49289590875723</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>38.36669330695427</v>
+        <v>46.31983825908388</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.17911607726043</v>
+        <v>56.47816773383575</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>32.56633820170232</v>
+        <v>14.18616024896614</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>38.80544893185984</v>
+        <v>40.2627757122528</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>40.69651445429822</v>
+        <v>49.28451319812454</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>33.73302986165167</v>
+        <v>32.0369169374349</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>39.55245798986242</v>
+        <v>53.19193069593132</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>41.31938988640088</v>
+        <v>60.5982979680067</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>40.67507439679557</v>
+        <v>63.06396304215296</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>45.5237286174039</v>
+        <v>73.20829729426563</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>47.0774726530253</v>
+        <v>81.08925304910666</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>39.35081951372173</v>
+        <v>30.42346511439995</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>46.38235114679773</v>
+        <v>64.24355198815194</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>48.51093727635804</v>
+        <v>74.25959183153182</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>33.29263869839184</v>
+        <v>48.94541313199364</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>32.57049678431162</v>
+        <v>47.34920301788971</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>37.45779096067436</v>
+        <v>57.38330994763899</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>39.02401502220753</v>
+        <v>64.66271479743662</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>31.27094736500082</v>
+        <v>18.29494873186467</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>38.36433429365428</v>
+        <v>49.79067217512183</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>32.32487628176658</v>
+        <v>8.881448576323244</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>38.36781883577176</v>
+        <v>45.40644865494816</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>40.18023499552993</v>
+        <v>55.65709354713248</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>32.5674955530077</v>
+        <v>13.6765417501623</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>38.80659182465009</v>
+        <v>40.55402269592799</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>40.69765045130561</v>
+        <v>49.67663649732351</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>33.73418225799745</v>
+        <v>31.50259818972614</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>39.55359690825774</v>
+        <v>53.37131865678255</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>41.32052235463293</v>
+        <v>60.86846547447738</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>40.67621737107444</v>
+        <v>63.45988523864953</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>45.52486013499501</v>
+        <v>73.7453511757834</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>47.0785985049685</v>
+        <v>81.80204946445684</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>39.35195950344792</v>
+        <v>30.22835870157182</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>46.38347485261315</v>
+        <v>64.99937175450766</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>48.51205324200313</v>
+        <v>75.10342695084519</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>33.29390586613885</v>
+        <v>43.60695028851518</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>32.57177433278552</v>
+        <v>39.10643097525019</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>37.45908117708019</v>
+        <v>48.91744712120839</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>39.02530657598827</v>
+        <v>56.73784761041026</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>31.27221567292337</v>
+        <v>11.73726721951905</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>38.36562104519433</v>
+        <v>41.17511090353881</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>40.5102523859417</v>
+        <v>51.12418000680131</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>32.32611091175507</v>
+        <v>5.16978226544801</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>38.36906915489649</v>
+        <v>40.08307747214655</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>40.18148696960846</v>
+        <v>51.25071846066837</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>32.56874379471201</v>
+        <v>8.911937070506294</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>38.80785620112602</v>
+        <v>34.06919514498984</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>40.69891656094611</v>
+        <v>44.23535085096105</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>33.73543156612717</v>
+        <v>25.7495040597156</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>39.55486126820357</v>
+        <v>46.08774352052053</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>41.32178832241235</v>
+        <v>54.50061569366316</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>40.67749370754865</v>
+        <v>54.14786622991802</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>45.52614899548749</v>
+        <v>64.23944800617029</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>47.07988871334459</v>
+        <v>72.86404756857308</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>39.35322665897505</v>
+        <v>22.5818131740761</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>46.38476023101386</v>
+        <v>55.2958200636789</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>48.51334059568484</v>
+        <v>66.6479277496468</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>15.76155826612835</v>
+        <v>10.12345830120051</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>21.84431511380584</v>
+        <v>40.19078691638053</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>23.64661636168343</v>
+        <v>46.3329483269286</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>15.64538460695503</v>
+        <v>14.09658211006531</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>21.92505236745424</v>
+        <v>33.96158647826888</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>23.80576962012746</v>
+        <v>38.68128871475093</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>16.87553416402994</v>
+        <v>28.99818916916112</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>22.73247339681792</v>
+        <v>44.78256527728258</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>24.48998077800914</v>
+        <v>48.40812933287827</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>23.66129538556805</v>
+        <v>46.06483398513942</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.53265464497165</v>
+        <v>53.3663237176001</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>30.07778159381846</v>
+        <v>57.47621860867578</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>22.38245456816802</v>
+        <v>19.28674829225922</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.46163200664031</v>
+        <v>44.28524829736392</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>31.57817613833244</v>
+        <v>50.18784131246098</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>18.75454821440491</v>
+        <v>10.82796792932774</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>24.88139732986338</v>
+        <v>43.6169566908022</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>26.69863473608926</v>
+        <v>52.45754495992377</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>18.66482483454496</v>
+        <v>9.757309141402512</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>24.99027042286312</v>
+        <v>32.64252230613383</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>26.88647008582985</v>
+        <v>40.23044269053131</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>19.89743831304503</v>
+        <v>26.53231586328308</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>25.7972083484192</v>
+        <v>44.86038683546617</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>15.76050281943355</v>
+        <v>19.07170251691542</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>21.8432762050349</v>
+        <v>51.98974988561756</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>23.6455851872629</v>
+        <v>57.47527432632477</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>15.64432085589106</v>
+        <v>25.8198293824347</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>21.92400574630436</v>
+        <v>48.70627024636673</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>23.80473106365645</v>
+        <v>52.64983898563619</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>16.87447499959914</v>
+        <v>41.66031283055821</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>22.73143020743168</v>
+        <v>60.11779090614188</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>24.48894513686961</v>
+        <v>63.06146858237193</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>23.66024633992384</v>
+        <v>63.54781129760157</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>28.53161878690184</v>
+        <v>71.39415016952921</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>30.07675245685366</v>
+        <v>75.32139559257831</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>22.38140676209504</v>
+        <v>34.24521983463002</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.46060347386084</v>
+        <v>62.83977001663432</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>31.57715665804661</v>
+        <v>67.78999486465236</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>18.75349657459004</v>
+        <v>23.06856992939662</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>24.88036234201762</v>
+        <v>58.81592989719603</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>26.6976075334183</v>
+        <v>67.07085774071204</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>18.66376485742438</v>
+        <v>24.97957540535719</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>24.98922769494267</v>
+        <v>51.00328148045949</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>26.88543547476974</v>
+        <v>57.89178855309029</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>19.89638293015543</v>
+        <v>42.76510087462954</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>25.79616905220784</v>
+        <v>63.86881436880745</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>15.7616879642924</v>
+        <v>15.12949721969401</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>21.84444729519005</v>
+        <v>48.71248869543117</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>23.64674968832364</v>
+        <v>54.28319131707228</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>15.64552485097863</v>
+        <v>22.87163374861642</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>21.92519519540871</v>
+        <v>46.52241505325837</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>23.80591363819727</v>
+        <v>50.55952340181462</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>16.87567382754083</v>
+        <v>38.66979527179985</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>22.73261547728114</v>
+        <v>57.8085162839342</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>24.49012397546032</v>
+        <v>60.8360024707428</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>23.66143619083579</v>
+        <v>61.47570012791881</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>28.53279714479076</v>
+        <v>69.46867533237958</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>30.07792517803641</v>
+        <v>73.56540648498377</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>22.38259349168299</v>
+        <v>31.57980699672364</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.46177381553254</v>
+        <v>61.08606288357571</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>31.57831928402712</v>
+        <v>66.11460711725734</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>18.75468094009151</v>
+        <v>19.59399492684274</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>24.8815325479413</v>
+        <v>56.02130748009751</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>26.69877110844141</v>
+        <v>64.37864491351603</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>18.66496814985271</v>
+        <v>22.54911781721375</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>24.99041633193365</v>
+        <v>49.35373732353928</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>26.88661719414921</v>
+        <v>56.35454452698258</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>19.89758104339416</v>
+        <v>40.29560123399469</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>25.79735350484324</v>
+        <v>62.09543056196736</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>15.76289912815787</v>
+        <v>14.95891163467147</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>21.84567429050268</v>
+        <v>46.99667753002377</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>23.64797828759309</v>
+        <v>53.4792529895084</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>15.64674884577839</v>
+        <v>21.92985365944012</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>21.92643547241486</v>
+        <v>43.9301841280868</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>23.80715559473627</v>
+        <v>49.00524011579687</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>16.87689900128423</v>
+        <v>36.77496254333944</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>22.73385583998812</v>
+        <v>54.44511798504611</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>24.49136589652331</v>
+        <v>58.38454462565011</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>23.66268812531919</v>
+        <v>56.18630079320721</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>28.53406170227243</v>
+        <v>63.9640200577177</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>30.07919104809715</v>
+        <v>68.60615963507587</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>22.38383625985728</v>
+        <v>27.91385769828986</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.46303497735946</v>
+        <v>55.44573293634267</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>31.57958235917888</v>
+        <v>61.70992748726307</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>18.75590561677413</v>
+        <v>17.26934495646043</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>24.88277317629667</v>
+        <v>52.09222004178653</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>26.70001336713578</v>
+        <v>61.32758798549226</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>18.66620586542589</v>
+        <v>19.28745091741743</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>24.99167045360743</v>
+        <v>44.37855480593595</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>26.88787302319519</v>
+        <v>52.38074613856692</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>19.89881994098803</v>
+        <v>36.02872002032333</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>25.79860770726822</v>
+        <v>56.30436002340221</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>27.56911638604748</v>
+        <v>50.99605016747748</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>26.75912538334768</v>
+        <v>47.37370321026287</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>31.66816692624949</v>
+        <v>57.79548817634783</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>33.2267560164109</v>
+        <v>63.7705125924651</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>25.46088018644815</v>
+        <v>19.31071111793777</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>32.59107421611918</v>
+        <v>49.09539035876173</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>34.72525594009981</v>
+        <v>57.35676350317922</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>27.00262419833088</v>
+        <v>10.06671000138307</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>33.07681615577857</v>
+        <v>45.35545101609651</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>34.879961494554</v>
+        <v>55.15433813099359</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>27.08496480302589</v>
+        <v>8.883938881163939</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>33.35619587514262</v>
+        <v>34.58007408661413</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>35.23779330113763</v>
+        <v>43.3150420971071</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.28735648608038</v>
+        <v>28.70320398448153</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>34.13680244901555</v>
+        <v>49.53846768648531</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>35.89483630671052</v>
+        <v>56.67259835549112</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>35.16606122668717</v>
+        <v>57.03350539877617</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>40.03646685485313</v>
+        <v>67.74541047969801</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>41.58242622925124</v>
+        <v>74.51251251666433</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>33.842185505664</v>
+        <v>24.89532055740493</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>40.91041456603865</v>
+        <v>57.97397838287353</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>43.02847182822802</v>
+        <v>67.59772670678896</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>27.56808468675651</v>
+        <v>69.39106934992412</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>26.75808028303985</v>
+        <v>68.55351374445175</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>31.66713511202836</v>
+        <v>79.54692646794831</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>33.22573097051186</v>
+        <v>85.3700829429077</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>25.4598363018147</v>
+        <v>37.92380999366945</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>32.5900497374459</v>
+        <v>71.45585012999504</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>34.72424057321254</v>
+        <v>78.8383000340872</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>27.00161749655865</v>
+        <v>26.25657038318841</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>33.0758260225214</v>
+        <v>64.53941542239784</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>34.87897905382179</v>
+        <v>73.69528479790748</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>27.08395040993443</v>
+        <v>28.20213775165127</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>33.35519864710612</v>
+        <v>57.07400244298719</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>35.23680409348019</v>
+        <v>65.04862078726461</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28.28634657398238</v>
+        <v>49.06979675318262</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>34.13580854621776</v>
+        <v>72.71477237859524</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>35.89384990965145</v>
+        <v>79.1817924750771</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>35.16506185655399</v>
+        <v>82.43240102557149</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>40.03548071667363</v>
+        <v>93.68876060827094</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>41.58144677669245</v>
+        <v>100.2765646662936</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>33.8411871495542</v>
+        <v>47.68240314989252</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>40.90943551803279</v>
+        <v>84.54383670851624</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>43.02750178514994</v>
+        <v>93.22324593781717</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>27.56926266806057</v>
+        <v>67.7182511156193</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>26.75926926621464</v>
+        <v>66.99120400750759</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>31.66831250780891</v>
+        <v>78.12569176900993</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>33.22690269000771</v>
+        <v>84.12901466271012</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>25.46102217257006</v>
+        <v>35.78642328882506</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>32.59121909871408</v>
+        <v>70.24935448372133</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>34.72540216980474</v>
+        <v>77.73066983612949</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>27.00276777206569</v>
+        <v>24.26341452932264</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>33.07696222990686</v>
+        <v>63.2332748603544</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>34.88010868852267</v>
+        <v>72.4726335540704</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>27.0851189393713</v>
+        <v>27.30414365092643</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>33.35635261397134</v>
+        <v>56.96414792755201</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>35.23795120370099</v>
+        <v>65.03031898579455</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>28.28751003890563</v>
+        <v>48.1358839420361</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>34.13695843594864</v>
+        <v>72.48353813012753</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>35.89499338611476</v>
+        <v>79.0328956348548</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>35.16621598708861</v>
+        <v>82.41795658544217</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>40.03662331965996</v>
+        <v>93.81412875805589</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>41.58258375285426</v>
+        <v>100.571695411542</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>33.84233830724971</v>
+        <v>47.08286573298453</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>40.91057027409978</v>
+        <v>84.88143985560465</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>43.0286288436015</v>
+        <v>93.6381463628134</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>27.57051845461817</v>
+        <v>62.80579812803562</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>26.76053515717893</v>
+        <v>59.20180968405313</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>31.66959112189037</v>
+        <v>70.11370062083994</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>33.22818263915902</v>
+        <v>76.66119849858481</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>25.4622788086019</v>
+        <v>29.68423606092482</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>32.59249426689183</v>
+        <v>62.09309943867673</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>34.72667928312071</v>
+        <v>70.77505691729526</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>27.00399184502298</v>
+        <v>20.96619649106566</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>33.07820206486006</v>
+        <v>58.32687142468545</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>34.88135016681915</v>
+        <v>68.49049134853696</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>27.08635628834407</v>
+        <v>22.99517787868062</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>33.35760617214027</v>
+        <v>50.93833309749963</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>35.2392064832988</v>
+        <v>60.05561748718422</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.28874853085046</v>
+        <v>42.82669179544142</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>34.13821204918567</v>
+        <v>65.64646041476773</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>35.89624859649116</v>
+        <v>73.11822731649153</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>35.16748130363765</v>
+        <v>73.58742969256676</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>40.03790121397807</v>
+        <v>84.79044638905492</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>41.58386299236624</v>
+        <v>92.11871462817952</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>33.84359442859747</v>
+        <v>39.91775496054164</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>40.91184470427078</v>
+        <v>75.66451404428986</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>43.02990523463228</v>
+        <v>85.67786587418311</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>20.76576808332458</v>
+        <v>-12.34429437277833</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>26.89479950903786</v>
+        <v>14.59545940775037</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>28.72924388522653</v>
+        <v>21.53749825176177</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>20.78279661128771</v>
+        <v>-7.355829123245851</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>27.11031107876819</v>
+        <v>8.903066337641118</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.02439085103698</v>
+        <v>14.44203925715676</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>21.99943652433132</v>
+        <v>4.58359431925437</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>27.90093398816989</v>
+        <v>17.16106852375683</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.68966803010003</v>
+        <v>21.51651483794773</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.91674096236773</v>
+        <v>18.77160013734477</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>33.82763935202912</v>
+        <v>24.53819493362448</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>35.40014043840023</v>
+        <v>29.71434201101099</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>27.61532531901258</v>
+        <v>-5.064465082242901</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>34.74806408979556</v>
+        <v>16.01485751153346</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>36.9020559950467</v>
+        <v>23.01515424017585</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>23.75987858204342</v>
+        <v>-12.33065414900767</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.93336075805388</v>
+        <v>17.28955879669619</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>31.78293834735211</v>
+        <v>27.03749421056867</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>23.80276714816017</v>
+        <v>-12.27948075736814</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>30.17643347904085</v>
+        <v>6.960674213612901</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>32.10620011689226</v>
+        <v>15.48440840809317</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>25.02202887269273</v>
+        <v>1.393921055426116</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>30.96670898004996</v>
+        <v>16.4779193301124</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>20.76471486470456</v>
+        <v>-3.005126230437089</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>26.89376295377716</v>
+        <v>26.78641928733593</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.72821520015895</v>
+        <v>33.10041880563222</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>20.7817353745186</v>
+        <v>4.828944291505422</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>27.10926710209387</v>
+        <v>24.11005770294076</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.0233550798546</v>
+        <v>28.9027551879089</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>21.99837985316359</v>
+        <v>17.68812592973604</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>27.89989341312296</v>
+        <v>32.93870748257733</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.68863513556112</v>
+        <v>36.63912347442795</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>28.91569460706989</v>
+        <v>36.74333422037093</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>33.82660629224085</v>
+        <v>43.04870421610724</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>35.39911422363956</v>
+        <v>48.0636928205448</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>27.61428018757832</v>
+        <v>10.39038102333718</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>34.74703837763192</v>
+        <v>35.06906157068289</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>36.90103949191327</v>
+        <v>41.15027866800718</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>23.75882906721669</v>
+        <v>0.3444660200854379</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.93232802162171</v>
+        <v>32.92491644999538</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>31.78191353256258</v>
+        <v>42.11906843682327</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>23.80170957875846</v>
+        <v>3.45338057109301</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>30.17539329006053</v>
+        <v>25.83371735691322</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>32.10516818621699</v>
+        <v>33.69143070565693</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>25.02097587664556</v>
+        <v>18.11737177547964</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>30.96567219273263</v>
+        <v>35.97778979150829</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>20.76590558770205</v>
+        <v>-6.777927241589442</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>26.89493953885288</v>
+        <v>23.69322841430824</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>28.72938508103054</v>
+        <v>30.10299074921878</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>20.78294488176187</v>
+        <v>2.059289275285259</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>27.11046197735072</v>
+        <v>22.12148186482275</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.02454296077067</v>
+        <v>27.01909481759099</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>21.99958421430581</v>
+        <v>14.88520370989542</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>27.90108413626658</v>
+        <v>30.83168090487536</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.68981931516557</v>
+        <v>34.62611434218029</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.91688983747606</v>
+        <v>34.87316818574646</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>33.82778995310356</v>
+        <v>41.32832121903448</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>35.40029214361295</v>
+        <v>46.52049810653166</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>27.61547225703752</v>
+        <v>7.917407300154501</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>34.74821396260655</v>
+        <v>33.52629592057128</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>36.90220722790788</v>
+        <v>39.69837344674497</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>23.76001914036978</v>
+        <v>-2.944499494114435</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.93350385101955</v>
+        <v>30.33082061014882</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>31.78308261553335</v>
+        <v>39.6383958537623</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>23.80291851664969</v>
+        <v>1.21884115806623</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>30.17658748550003</v>
+        <v>24.3970988296871</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>32.10635534384482</v>
+        <v>32.37893294741981</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>25.02217965627442</v>
+        <v>15.85292866943611</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>30.96686223090114</v>
+        <v>34.42435200021949</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>20.76714421287917</v>
+        <v>-7.264818014179014</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>26.89619411975446</v>
+        <v>21.65383093726057</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.73064130213363</v>
+        <v>28.96874479733528</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>20.78419682376764</v>
+        <v>0.7570878161442884</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>27.11173032961469</v>
+        <v>19.16073358794744</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.02581303017757</v>
+        <v>25.08934088846512</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>22.000837283076</v>
+        <v>12.63736306810277</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>27.90235251337286</v>
+        <v>27.10838723475575</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.69108928544689</v>
+        <v>31.80852573471516</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.91817018427048</v>
+        <v>29.17848238108119</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>33.82908302559052</v>
+        <v>35.41555937804238</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>35.40158655201584</v>
+        <v>41.15065161542255</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>27.61674331388273</v>
+        <v>3.850931274882637</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>34.74950355627039</v>
+        <v>27.47448375416475</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>36.90349877860537</v>
+        <v>34.87566607399346</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>23.76127140641176</v>
+        <v>-5.590326036791875</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.93477219392934</v>
+        <v>26.07292115011773</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>31.78435262552965</v>
+        <v>36.24975838245437</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>23.80418430824941</v>
+        <v>-2.410594989513957</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>30.17786981220166</v>
+        <v>19.04566092753015</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>32.10763941606605</v>
+        <v>28.01970065180753</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>25.02344657837185</v>
+        <v>11.22527865596527</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>30.96814457809617</v>
+        <v>28.26529324443898</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>32.77003234222218</v>
+        <v>23.44568543797598</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>32.01533153588773</v>
+        <v>19.2364009461077</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.96426525050781</v>
+        <v>28.13679252704114</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>38.55043490423206</v>
+        <v>35.28308561030191</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>30.69428732184746</v>
+        <v>-5.990904123511001</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>37.87845144045861</v>
+        <v>19.83571898524557</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>40.05031742342634</v>
+        <v>29.30724769336855</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>31.86837772724197</v>
+        <v>-11.13384161785981</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>37.98876462976362</v>
+        <v>20.98456938613673</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>39.82406178210426</v>
+        <v>31.730091192393</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>32.08094678759991</v>
+        <v>-11.11162880920311</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>38.3999462928643</v>
+        <v>10.93774865351292</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>40.31491483643219</v>
+        <v>20.65381042249807</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>33.26988828531433</v>
+        <v>5.641090860350598</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>39.16382247572378</v>
+        <v>23.22998525908727</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>40.95308631269356</v>
+        <v>31.23669417365318</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>40.27810438142085</v>
+        <v>31.08784165599666</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>45.18801253915591</v>
+        <v>40.28208886212565</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>46.76146393148397</v>
+        <v>48.24554706831408</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>38.93196225098725</v>
+        <v>1.71209474852505</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>46.05365153859861</v>
+        <v>30.8244183104858</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>48.20918564599488</v>
+        <v>41.71139950273417</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>32.76900328467266</v>
+        <v>42.36214419257672</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>32.01428901964166</v>
+        <v>40.95333166447197</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.96323612926041</v>
+        <v>50.41963322601379</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>38.54941267600847</v>
+        <v>57.43738533786377</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>30.69324600595375</v>
+        <v>13.16510416642344</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>37.87742967764377</v>
+        <v>42.74341466097734</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>40.04930492965804</v>
+        <v>51.3732433997201</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>31.86737295383867</v>
+        <v>5.591276016345205</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>37.98777654936868</v>
+        <v>40.70565353899171</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>39.82308152962896</v>
+        <v>50.84073534720046</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>32.07993460302046</v>
+        <v>8.817846625897982</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>38.39895140254634</v>
+        <v>34.04464185040165</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>40.31392810684159</v>
+        <v>43.03458937832139</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>33.26888055935838</v>
+        <v>26.60068086874272</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>39.16283087926051</v>
+        <v>47.00004518648471</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>40.95210235376099</v>
+        <v>54.37038125888191</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>40.27710739471665</v>
+        <v>57.12869900647215</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>45.1870288918843</v>
+        <v>66.8613659875486</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>46.76048709361073</v>
+        <v>74.6689383028062</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>38.93096626478301</v>
+        <v>25.14409147475252</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>46.05267500532226</v>
+        <v>58.04347727476954</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>48.2082182737611</v>
+        <v>68.02436662765336</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>32.77018673884098</v>
+        <v>40.91988940143566</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>32.01548351539427</v>
+        <v>39.61109986043835</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>36.96441896011532</v>
+        <v>49.22135152649901</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>38.55058972582658</v>
+        <v>56.42715352993351</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>30.69443734927823</v>
+        <v>11.23852255522867</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>37.87860441380424</v>
+        <v>41.76647835662553</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>40.05047176736431</v>
+        <v>50.50820581731067</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>31.86852910623286</v>
+        <v>3.806706968873687</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>37.98891855028454</v>
+        <v>39.62261991553738</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>39.82421684332795</v>
+        <v>49.85235399580209</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.081108947994</v>
+        <v>8.13832000531723</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>38.40011109878863</v>
+        <v>34.16983334169265</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>40.31508082726229</v>
+        <v>43.26330678836536</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>33.27004986221606</v>
+        <v>25.89465626177634</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>39.1639865268471</v>
+        <v>47.01120498609736</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>40.95325147638677</v>
+        <v>54.47463386226154</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>40.27826720971647</v>
+        <v>57.35706773452461</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>45.18817710250674</v>
+        <v>67.23228755979007</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>46.76162957332139</v>
+        <v>75.21748245983333</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>38.93212306558768</v>
+        <v>24.77784007327747</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>46.05381530781611</v>
+        <v>58.63260781062002</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>48.20935074594617</v>
+        <v>68.70401321519635</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>32.77147070548158</v>
+        <v>35.63123950848823</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>32.01677794849056</v>
+        <v>31.40863889996869</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>36.96572621988579</v>
+        <v>40.7929423676325</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>38.55189834438342</v>
+        <v>48.53974153518538</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>30.69572240215613</v>
+        <v>4.729541141366866</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>37.87990814303041</v>
+        <v>33.19201454145582</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>40.05177748606039</v>
+        <v>43.12513534141191</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>31.86978023354163</v>
+        <v>0.1333132103992689</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>37.99018556439886</v>
+        <v>34.33187269749494</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>39.82548553754245</v>
+        <v>45.47700300121711</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>32.08237382674285</v>
+        <v>3.406392111876013</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>38.40139231536206</v>
+        <v>27.7120124700082</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>40.31636380340028</v>
+        <v>37.84722376215271</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>33.27131583354092</v>
+        <v>20.16868968649571</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>39.16526773936209</v>
+        <v>39.74963583477971</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>40.95453432136034</v>
+        <v>48.12711019910171</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>40.27956051185345</v>
+        <v>48.05559377705696</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>45.18948308545887</v>
+        <v>57.73452993027023</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>46.7629369254869</v>
+        <v>66.28758482323613</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>38.93340704823954</v>
+        <v>17.15005316106719</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>46.05511774309927</v>
+        <v>48.94089973844208</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>48.21065518639112</v>
+        <v>60.25942944447971</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>20.82065392414427</v>
+        <v>-14.04105412806998</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>26.84633387007285</v>
+        <v>12.73337994385423</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.64927466239613</v>
+        <v>19.39603662867139</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>20.84789910267303</v>
+        <v>-9.567544214861126</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>27.06874117273622</v>
+        <v>6.743251427608829</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>28.94992590710345</v>
+        <v>12.01980737394963</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>22.04223036054861</v>
+        <v>2.621166799965177</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>27.8442437290864</v>
+        <v>15.27522718045717</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.60224407513175</v>
+        <v>19.40502906637803</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.85242883888143</v>
+        <v>16.7699080417779</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>33.68057656626083</v>
+        <v>22.58881189791679</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>35.22604286759618</v>
+        <v>27.45069667792491</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>27.57707517474532</v>
+        <v>-7.002243240915512</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>34.58951485929798</v>
+        <v>14.07613034040675</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>36.70645158730272</v>
+        <v>20.7251133155466</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>23.74410761077472</v>
+        <v>-12.61261138948985</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.813417807387</v>
+        <v>16.81515392995557</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>31.63119982650989</v>
+        <v>26.22745801060478</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>23.79647962185309</v>
+        <v>-12.98858336814457</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>30.06262212334621</v>
+        <v>6.271708483848787</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>31.95919072776922</v>
+        <v>14.47331851015751</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>24.9934525811795</v>
+        <v>0.9503596382484929</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>30.83785209206714</v>
+        <v>16.08528695311373</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>20.81961906452227</v>
+        <v>-5.087137067810435</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.84531538627036</v>
+        <v>24.49381507449594</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>28.6482639171592</v>
+        <v>30.5334777430402</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>20.84685639935608</v>
+        <v>2.172811851385642</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>27.06771543164822</v>
+        <v>21.45774760017672</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>28.94890823410338</v>
+        <v>25.99483884537353</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22.0411921399229</v>
+        <v>15.26836252367027</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>27.84322132681112</v>
+        <v>30.55315320944946</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.60122922481752</v>
+        <v>34.03379240725246</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.8514007896319</v>
+        <v>34.19801800140775</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>33.67956158349286</v>
+        <v>40.54802180787469</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>35.22503461513698</v>
+        <v>45.24725891364766</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>27.57604833646175</v>
+        <v>7.946881064272471</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>34.58850710502144</v>
+        <v>32.56714141533324</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>36.70545288771295</v>
+        <v>38.30574714406798</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>23.74307633184894</v>
+        <v>-0.3692103562784297</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.81240301719122</v>
+        <v>31.97188601929223</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>31.63019282536558</v>
+        <v>40.83371204203527</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>23.79544046262509</v>
+        <v>2.249268886282376</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>30.06160004445249</v>
+        <v>24.59988591529367</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>31.95817676878447</v>
+        <v>32.1404136194678</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.99241791241685</v>
+        <v>17.16515326203441</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.83683335218515</v>
+        <v>35.0325678686412</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>20.82078975287177</v>
+        <v>-8.860636772395317</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>26.846472179775</v>
+        <v>21.38728409854371</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.64941411767911</v>
+        <v>27.51971677691032</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>20.84804552477931</v>
+        <v>-0.6146182774512852</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>27.06889017665988</v>
+        <v>19.43682783366681</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.95007610091349</v>
+        <v>24.07563874384219</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>22.04237621167859</v>
+        <v>12.44616801729026</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>27.84439199504716</v>
+        <v>28.41393411167315</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.60239345812678</v>
+        <v>31.98570403088603</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.85257586167452</v>
+        <v>32.29176042475058</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.68072528453263</v>
+        <v>38.78891095801505</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>35.22619267034869</v>
+        <v>43.66157475274066</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>27.57722029058212</v>
+        <v>5.448690488612911</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>34.5896628581831</v>
+        <v>30.98203930530788</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>36.70660092236223</v>
+        <v>36.80836765304122</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>23.74424643912558</v>
+        <v>-3.671742264980864</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.81355912576255</v>
+        <v>29.35127523388906</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>31.63134229953525</v>
+        <v>38.3231903486128</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>23.7966290868811</v>
+        <v>-0.01699033146367057</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>30.06277417988974</v>
+        <v>23.11664192509934</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>31.95934398338073</v>
+        <v>30.77772941840877</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>24.99360147090036</v>
+        <v>14.8673930890491</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>30.83800340561419</v>
+        <v>33.43259172937534</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>20.82200684209032</v>
+        <v>-9.209365927329326</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>26.84770496227917</v>
+        <v>19.51075707721898</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.65064850837061</v>
+        <v>26.53496079774866</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>20.84927572235208</v>
+        <v>-1.757637425925434</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>27.07013651479107</v>
+        <v>16.66175567448399</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.95132412271128</v>
+        <v>22.31617434720218</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>22.04360751384284</v>
+        <v>10.37137192325042</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.84563835398346</v>
+        <v>24.88718245364051</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.60364137912299</v>
+        <v>29.35112553654893</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.85383400326086</v>
+        <v>26.83327208365144</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>33.68199594241239</v>
+        <v>33.11608752316121</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>35.22746463799572</v>
+        <v>38.5237581377929</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>27.57846931233883</v>
+        <v>1.593615552666076</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>34.59093011193399</v>
+        <v>25.17354024270937</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>36.70787009500361</v>
+        <v>32.21054993222353</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>23.74547689467812</v>
+        <v>-6.148697724216703</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.81480539351608</v>
+        <v>25.28775468125508</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>31.63259020181867</v>
+        <v>35.11652179039227</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>23.79787285522903</v>
+        <v>-3.453426663260178</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>30.06403421134436</v>
+        <v>17.98554178540464</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>31.96060572630791</v>
+        <v>26.62449817027401</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>24.99484634769243</v>
+        <v>10.44740519058629</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>30.83926345379385</v>
+        <v>27.50543629868485</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>32.61015957276155</v>
+        <v>22.77511857043233</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>31.87814726248111</v>
+        <v>18.71097619470386</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>36.74363865814853</v>
+        <v>27.61290548446877</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>38.30251300829714</v>
+        <v>34.3991371801866</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>30.5835890255806</v>
+        <v>-6.421018627743436</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>37.64650441162765</v>
+        <v>19.34580335799751</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>39.78097066706312</v>
+        <v>28.41555447212621</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>31.69564205398343</v>
+        <v>-11.40431490477519</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>37.71265808570834</v>
+        <v>20.49849258760749</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>39.51634593028094</v>
+        <v>30.88102985192874</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>31.91436596913334</v>
+        <v>-11.83108617009003</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>38.12666525227341</v>
+        <v>10.21200108050227</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>40.00862868267556</v>
+        <v>19.57424987659006</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>33.08161392725049</v>
+        <v>5.146066612062743</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>38.87603124332825</v>
+        <v>22.76240333936001</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>40.63446258526873</v>
+        <v>30.46326832530319</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>39.98057545957303</v>
+        <v>30.37495806785999</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>44.80762600990809</v>
+        <v>39.57264996131992</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>46.35395475353138</v>
+        <v>47.16007450262614</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>38.66137071188677</v>
+        <v>1.166113950344997</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>45.662755669827</v>
+        <v>30.18777019978175</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>47.78110375410532</v>
+        <v>40.63749011048419</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>32.60914843317467</v>
+        <v>41.14318693117112</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>31.87712292573647</v>
+        <v>39.83099536470517</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>36.74262748557491</v>
+        <v>49.29079284079123</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>38.30150861313413</v>
+        <v>55.94613119912772</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>30.58256587702205</v>
+        <v>12.17693249103977</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>37.64550047841254</v>
+        <v>41.63567712486615</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>39.77997584742671</v>
+        <v>49.87049799593821</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>31.69465468873573</v>
+        <v>4.822180860676575</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>37.71168712493902</v>
+        <v>39.6735665929294</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>39.51538266626238</v>
+        <v>49.44971430529405</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>31.91337135482249</v>
+        <v>7.534570984823105</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>38.12568763326531</v>
+        <v>32.70471719586969</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>40.0076590874848</v>
+        <v>41.34656314449752</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>33.08062369087772</v>
+        <v>25.52755178910729</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>38.87505685763181</v>
+        <v>45.90997168113802</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>40.63349570903249</v>
+        <v>52.97934338401586</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>39.97959580936794</v>
+        <v>55.74774712090014</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>44.80665946903791</v>
+        <v>65.4763400695338</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>46.35299490770673</v>
+        <v>72.90592792817279</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>38.66039205375456</v>
+        <v>23.9701070636529</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>45.6617961282119</v>
+        <v>56.71858876296139</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>47.78015321972015</v>
+        <v>66.26980529550535</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>32.61031201199049</v>
+        <v>39.65117771968752</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>31.87829733452562</v>
+        <v>38.43872328748619</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>36.74379042974124</v>
+        <v>48.03998541109534</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>38.30266587208531</v>
+        <v>54.87940956979917</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>30.58373717596619</v>
+        <v>10.21084476209991</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>37.64665545600732</v>
+        <v>40.60174441405618</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>39.78112305797765</v>
+        <v>48.94492654151581</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>31.69579149492833</v>
+        <v>2.998313258910365</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>37.71281002341228</v>
+        <v>38.53825952921172</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>39.51649898864569</v>
+        <v>48.4059968319692</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>31.91452601824037</v>
+        <v>6.797047347887855</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>38.12682790028354</v>
+        <v>32.75698451657497</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>40.00879249470759</v>
+        <v>41.49909518053548</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>33.08177340249932</v>
+        <v>24.76183183925228</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>38.87619314919553</v>
+        <v>45.84819396650639</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>40.63462558412525</v>
+        <v>53.00770511624083</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>39.9807361716463</v>
+        <v>55.89955898427043</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>44.80778842638145</v>
+        <v>65.76827005766353</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>46.35411822920779</v>
+        <v>73.37167024565419</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>38.66152944191659</v>
+        <v>23.53802106008863</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>45.66291730235498</v>
+        <v>57.224404593397</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>47.78126669391861</v>
+        <v>66.86290271860832</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>32.6115736479712</v>
+        <v>34.58184246316333</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>31.87956927917484</v>
+        <v>30.50910516342421</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>36.74507498982162</v>
+        <v>39.88825723870032</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>38.30395176435178</v>
+        <v>47.26095138874159</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>30.58499991218926</v>
+        <v>3.948552222193719</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>37.64793656118662</v>
+        <v>32.30695569525508</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>39.78240611383247</v>
+        <v>41.82427607958454</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>31.69702079408475</v>
+        <v>-0.4875176166013873</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>37.71405494773381</v>
+        <v>33.46082458356423</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>39.51774556015337</v>
+        <v>44.23084953557783</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.91576885100741</v>
+        <v>2.277828829570836</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>38.12808680202813</v>
+        <v>26.5394460424579</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>40.01005312158502</v>
+        <v>36.3082257200923</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>33.08301730660953</v>
+        <v>19.26316332852019</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>38.87745204371841</v>
+        <v>38.83838116241208</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>40.6358860791046</v>
+        <v>46.89870156819836</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>39.98200696532005</v>
+        <v>46.89087093211997</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>44.80907169192264</v>
+        <v>56.56664158027787</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>46.35540283710039</v>
+        <v>64.72972825389752</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>38.66279108667705</v>
+        <v>16.17676423384442</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>45.66419709593269</v>
+        <v>47.83241067277804</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>47.78254845342971</v>
+        <v>58.6999619808611</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>19.39780277277817</v>
+        <v>-5.745853162302552</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>25.51883830435727</v>
+        <v>22.73987895866534</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>27.34331131056183</v>
+        <v>29.28499866698728</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>19.37808421421865</v>
+        <v>-1.94844878878391</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>25.69743850858194</v>
+        <v>16.06001389627649</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>27.60116090740939</v>
+        <v>21.18218905081594</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>20.60048839894339</v>
+        <v>11.96522773969729</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>26.49447409929564</v>
+        <v>26.07943828702484</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>28.27350578129836</v>
+        <v>30.05704024279922</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>27.48078623824786</v>
+        <v>27.0822364024495</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>32.38416268852501</v>
+        <v>33.65297974407818</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>33.94796514751862</v>
+        <v>38.09581709385397</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>26.18493694505059</v>
+        <v>1.56278541754622</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>33.30838671909213</v>
+        <v>24.61792269929931</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>35.45074682522463</v>
+        <v>30.9520413584664</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>22.35107334345433</v>
+        <v>-5.904233360137944</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>28.51628356831961</v>
+        <v>25.26210407426228</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>30.35579844320652</v>
+        <v>34.57269804173447</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>22.3571180269506</v>
+        <v>-7.068190715633371</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.72233808581686</v>
+        <v>13.91437677436036</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>30.64165197079324</v>
+        <v>21.97801692731895</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>23.58213753760226</v>
+        <v>8.626801354474562</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.51903660894006</v>
+        <v>25.24321733202668</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>19.39675037166915</v>
+        <v>3.591253903148775</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>25.51780252122557</v>
+        <v>34.94723626842594</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>27.34228336944871</v>
+        <v>40.84104920822843</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>19.3770236978831</v>
+        <v>10.21527081681283</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>25.69639520521187</v>
+        <v>31.26610067624794</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>27.60012578020376</v>
+        <v>35.61700245695303</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>20.59943245711967</v>
+        <v>25.06740636028102</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>26.49343420990892</v>
+        <v>41.87287952194465</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>28.27247354475282</v>
+        <v>45.17321218760229</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>27.47974058727643</v>
+        <v>45.03383189682443</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>32.38313029521395</v>
+        <v>52.15190980550315</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>33.9469395704717</v>
+        <v>56.41685722339436</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>26.18389252423493</v>
+        <v>16.9708719550783</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>33.30736166404155</v>
+        <v>43.64927644037279</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>35.44973094704248</v>
+        <v>49.03407883139134</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>22.35002453362557</v>
+        <v>6.757178094808921</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>28.51525149063893</v>
+        <v>40.90215958435662</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>30.35477425888939</v>
+        <v>49.63380302230134</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>22.3560610650242</v>
+        <v>8.630658726728555</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>28.72129845628604</v>
+        <v>32.77344965415581</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>30.64062057013413</v>
+        <v>40.14401118940194</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>23.5810851581329</v>
+        <v>25.33556110066944</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.5180003936735</v>
+        <v>44.74647011639705</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>19.39793918551534</v>
+        <v>-0.2869119854072011</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.51897722219355</v>
+        <v>31.7429756634804</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>27.34345139070447</v>
+        <v>37.72761014223894</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>19.37823132596066</v>
+        <v>7.341797107623211</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>25.69758822706827</v>
+        <v>29.16722002845373</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>27.60131183329751</v>
+        <v>33.61782430181776</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>20.60063492529202</v>
+        <v>22.15364340724159</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>26.49462306387865</v>
+        <v>39.64941909173692</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.273655879235</v>
+        <v>43.03909193897876</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>27.48093394850381</v>
+        <v>43.0464057900912</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>32.38431210943999</v>
+        <v>50.31291600039204</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>33.94811566781143</v>
+        <v>54.75283361310916</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>26.18508273315782</v>
+        <v>14.3844344133131</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>33.30853541795699</v>
+        <v>41.98621439865543</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>35.45089688022576</v>
+        <v>47.45584019246427</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>22.35121278139617</v>
+        <v>3.347630672334727</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.5164255205121</v>
+        <v>38.18163544895008</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>30.35594156693561</v>
+        <v>47.02158959672465</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>22.35726820748313</v>
+        <v>6.276257880542374</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.72249088290686</v>
+        <v>31.21032974786075</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>30.64180598463107</v>
+        <v>38.69963811924562</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>23.58228712836943</v>
+        <v>22.944243128082</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.519188647043</v>
+        <v>43.06043068496847</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>19.3991687197603</v>
+        <v>-0.8002294576922679</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>25.52022271351763</v>
+        <v>29.66462930542892</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>27.34469849631489</v>
+        <v>36.5680313037287</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>19.37947405311349</v>
+        <v>6.026831744681381</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>25.69884736660822</v>
+        <v>26.18011088339279</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>27.60257266319982</v>
+        <v>31.67680427643005</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>20.60187880154701</v>
+        <v>19.87926526137892</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>26.49588225073544</v>
+        <v>35.88735110931131</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.2749166343444</v>
+        <v>40.19595830948791</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>27.48220492552279</v>
+        <v>37.3444909101414</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>32.38559580973292</v>
+        <v>44.3902555766483</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>33.94940068537137</v>
+        <v>49.38185602530055</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>26.18634445052339</v>
+        <v>10.32957604135659</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>33.30981567441835</v>
+        <v>35.93022577607398</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>35.4521790628817</v>
+        <v>42.64683706098326</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>22.35245585020096</v>
+        <v>0.6483994354850182</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.51768466695359</v>
+        <v>33.85735435816888</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>30.35720235415008</v>
+        <v>43.58164039777878</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>22.35852467771086</v>
+        <v>2.606554953240316</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>28.72376388975955</v>
+        <v>25.80453158662505</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>30.64308070980415</v>
+        <v>34.30275688984014</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>23.58354475121198</v>
+        <v>18.26246434851897</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.52046169667757</v>
+        <v>36.83456776370529</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>31.31256947976281</v>
+        <v>31.79452472052389</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>30.53809375941828</v>
+        <v>27.42434205994509</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>35.47926960535556</v>
+        <v>37.11737144261275</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>37.05664564386123</v>
+        <v>43.47857470792641</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.22290751401981</v>
+        <v>0.5913355396249749</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>36.39746783922132</v>
+        <v>28.38623656910509</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>38.55759141465388</v>
+        <v>37.15146158717492</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.45690651338329</v>
+        <v>-5.79159983718877</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>36.56876242977573</v>
+        <v>27.92729649769268</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>38.39402157839642</v>
+        <v>38.21551922758596</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>30.63309446882961</v>
+        <v>-7.040121322525387</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>36.94337639731052</v>
+        <v>16.81179342058592</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>38.84791942837965</v>
+        <v>26.04504864334835</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.82785128675948</v>
+        <v>11.73169120930827</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>37.71374856934001</v>
+        <v>30.90734189916259</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>39.4932474679193</v>
+        <v>38.47678655536333</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>38.79919089605058</v>
+        <v>38.11539446466298</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>43.70115096589093</v>
+        <v>48.13212675955157</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>45.26582576788725</v>
+        <v>55.31649607595035</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>37.45912169474087</v>
+        <v>7.159924341022606</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>44.5709088511191</v>
+        <v>38.31332351186181</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>46.71472715192849</v>
+        <v>48.46987093256535</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>31.31154096650039</v>
+        <v>50.69029735339412</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>30.53705183325184</v>
+        <v>49.11019773028977</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>35.47824103563845</v>
+        <v>59.37769909373033</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>37.05562393820004</v>
+        <v>65.59237794414027</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.22186679509921</v>
+        <v>19.69058627711012</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>36.39644661888452</v>
+        <v>51.26114104326031</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>38.55657943107472</v>
+        <v>59.15196029117524</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>30.45590230696686</v>
+        <v>10.87182658976918</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>36.56777486991361</v>
+        <v>47.60559578148104</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>38.39304181836926</v>
+        <v>57.25715289456775</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>30.63208275254705</v>
+        <v>12.80817901315142</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>36.94238192704644</v>
+        <v>39.85808437001096</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>38.84693308960905</v>
+        <v>48.33696685924976</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>31.82684403898024</v>
+        <v>32.62895911614865</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>37.71275740631178</v>
+        <v>54.63366251865939</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>39.49226391485294</v>
+        <v>61.54159722355834</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>38.79819436000452</v>
+        <v>64.07664704109526</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>43.70016773055823</v>
+        <v>74.6407367838799</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>45.26484931320351</v>
+        <v>81.65094349097282</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>37.45812616702306</v>
+        <v>30.48817098416835</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>44.5699327216101</v>
+        <v>65.45313899286749</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>46.71376015137724</v>
+        <v>74.66950757941322</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>31.31272266002112</v>
+        <v>49.11060668618778</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>30.53824454477902</v>
+        <v>47.63461521152281</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>35.4794221054869</v>
+        <v>58.04487498544388</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>37.05679925121389</v>
+        <v>64.44538256016163</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.22305636233122</v>
+        <v>17.63450876973956</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>36.3976196093658</v>
+        <v>50.14777286195311</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>38.55774455147893</v>
+        <v>58.14428623761142</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>30.45705670652892</v>
+        <v>8.958353809467233</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>36.56891514448752</v>
+        <v>46.38806243960576</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>38.39417543000284</v>
+        <v>56.12891495694106</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>30.63325537537352</v>
+        <v>12.00116962918947</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>36.94353992841979</v>
+        <v>39.84941873019973</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>38.84808414050827</v>
+        <v>48.42619357547359</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>31.82801160518142</v>
+        <v>31.78833108134744</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>37.71391134246561</v>
+        <v>54.50473291346788</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>39.49341134987687</v>
+        <v>61.50069365062184</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>38.79935246439882</v>
+        <v>64.16418113536693</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>43.70131425429078</v>
+        <v>74.86970525738595</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>45.26599012995735</v>
+        <v>82.05519568283002</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>37.45928126473665</v>
+        <v>29.98498946961938</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>44.57107135215272</v>
+        <v>65.89869939710712</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>46.71489097961557</v>
+        <v>75.19908904334014</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>31.31399730379135</v>
+        <v>43.76979546129363</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>30.53952950108956</v>
+        <v>39.39571269072607</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>35.48071988552483</v>
+        <v>49.57737518935618</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>37.05809837107871</v>
+        <v>56.52842185197318</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.22433196967011</v>
+        <v>11.10761404309416</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>36.3989138946647</v>
+        <v>41.53893947866234</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>38.55904079492923</v>
+        <v>50.74689738576941</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>30.45829875768293</v>
+        <v>5.269795366736744</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>36.5701730820945</v>
+        <v>41.0693915870322</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>38.39543502131522</v>
+        <v>51.74135566124018</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>30.63451105761015</v>
+        <v>7.267262527534669</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>36.94481194883144</v>
+        <v>33.37575345332259</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>38.84935789320937</v>
+        <v>43.01174789522899</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>31.82926840164352</v>
+        <v>26.04679811266621</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>37.71518338071579</v>
+        <v>47.21510856154952</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>39.49468499519863</v>
+        <v>55.14043182945336</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>38.80063641783332</v>
+        <v>54.86611730582968</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>43.70261088475273</v>
+        <v>65.37255707094378</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>45.26728811055281</v>
+        <v>73.13562751425854</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>37.46055593012112</v>
+        <v>22.37765909296032</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>44.57236447047526</v>
+        <v>56.21137637295351</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>46.71618607169448</v>
+        <v>66.77986293489617</v>
       </c>
     </row>
   </sheetData>
